--- a/Post_Flight_Datasheet_15_03_V2.xlsx
+++ b/Post_Flight_Datasheet_15_03_V2.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="660" yWindow="0" windowWidth="14540" windowHeight="14460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="109">
   <si>
     <t>Post-Flight Data Sheet AE3202</t>
   </si>
@@ -226,12 +231,6 @@
     <t>cockpit</t>
   </si>
   <si>
-    <t>1 or -15</t>
-  </si>
-  <si>
-    <t>3,6,5</t>
-  </si>
-  <si>
     <t>ZEROG</t>
   </si>
   <si>
@@ -242,6 +241,111 @@
   </si>
   <si>
     <t>1300 lbs</t>
+  </si>
+  <si>
+    <t>30:49</t>
+  </si>
+  <si>
+    <t>31:45</t>
+  </si>
+  <si>
+    <t>32:43</t>
+  </si>
+  <si>
+    <t>33:47</t>
+  </si>
+  <si>
+    <t>35:22</t>
+  </si>
+  <si>
+    <t>36:13</t>
+  </si>
+  <si>
+    <t>36:59</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>7.8</t>
+  </si>
+  <si>
+    <t>3.85</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>38:15</t>
+  </si>
+  <si>
+    <t>39:22</t>
+  </si>
+  <si>
+    <t>43:15</t>
+  </si>
+  <si>
+    <t>41:38</t>
+  </si>
+  <si>
+    <t>46:45</t>
+  </si>
+  <si>
+    <t>47:25</t>
+  </si>
+  <si>
+    <t>40:34</t>
+  </si>
+  <si>
+    <t>49:10</t>
+  </si>
+  <si>
+    <t>17:47</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>20:33</t>
+  </si>
+  <si>
+    <t>22:09</t>
+  </si>
+  <si>
+    <t>27:00</t>
+  </si>
+  <si>
+    <t>02:38</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>7.7</t>
+  </si>
+  <si>
+    <t>10.4</t>
   </si>
 </sst>
 </file>
@@ -251,7 +355,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -263,6 +367,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -288,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -297,16 +407,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -481,7 +597,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -516,7 +632,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -693,7 +809,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -703,26 +819,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C57" workbookViewId="0">
+      <selection activeCell="M80" sqref="M80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3"/>
-    <col min="2" max="2" width="8.140625"/>
-    <col min="3" max="3" width="7"/>
-    <col min="4" max="4" width="7.140625"/>
-    <col min="5" max="13" width="7"/>
-    <col min="14" max="1025" width="8.5703125"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -732,7 +843,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -742,13 +853,13 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -756,7 +867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -765,7 +876,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -776,7 +887,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -787,7 +898,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -798,7 +909,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -809,7 +920,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -820,7 +931,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -831,7 +942,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -842,7 +953,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -853,7 +964,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -861,12 +972,12 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -874,7 +985,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -906,7 +1017,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="B26" s="3" t="s">
         <v>31</v>
       </c>
@@ -935,12 +1046,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>1</v>
       </c>
-      <c r="B28" s="4">
-        <v>0.74097222222222225</v>
+      <c r="B28" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2">
@@ -949,8 +1060,8 @@
       <c r="E28" s="2">
         <v>248</v>
       </c>
-      <c r="F28" s="2">
-        <v>1.3</v>
+      <c r="F28" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="G28" s="2">
         <v>735</v>
@@ -965,12 +1076,12 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>2</v>
       </c>
-      <c r="B29" s="4">
-        <v>0.79166666666666663</v>
+      <c r="B29" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2">
@@ -979,8 +1090,8 @@
       <c r="E29" s="2">
         <v>217</v>
       </c>
-      <c r="F29" s="2">
-        <v>2</v>
+      <c r="F29" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="G29" s="2">
         <v>594</v>
@@ -995,12 +1106,12 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>3</v>
       </c>
-      <c r="B30" s="4">
-        <v>0.85625000000000007</v>
+      <c r="B30" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2">
@@ -1009,8 +1120,8 @@
       <c r="E30" s="2">
         <v>190</v>
       </c>
-      <c r="F30" s="2">
-        <v>3</v>
+      <c r="F30" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="G30" s="2">
         <v>502</v>
@@ -1025,12 +1136,12 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>4</v>
       </c>
-      <c r="B31" s="4">
-        <v>0.92291666666666661</v>
+      <c r="B31" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2">
@@ -1039,8 +1150,8 @@
       <c r="E31" s="2">
         <v>163</v>
       </c>
-      <c r="F31" s="2">
-        <v>4.5</v>
+      <c r="F31" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="G31" s="2">
         <v>429</v>
@@ -1055,12 +1166,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>5</v>
       </c>
-      <c r="B32" s="6">
-        <v>1.01875</v>
+      <c r="B32" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2">
@@ -1069,8 +1180,8 @@
       <c r="E32" s="2">
         <v>130</v>
       </c>
-      <c r="F32" s="2">
-        <v>7.7</v>
+      <c r="F32" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="G32" s="2">
         <v>387.5</v>
@@ -1085,12 +1196,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>6</v>
       </c>
-      <c r="B33" s="6">
-        <v>1.1097222222222223</v>
+      <c r="B33" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2">
@@ -1099,8 +1210,8 @@
       <c r="E33" s="2">
         <v>111</v>
       </c>
-      <c r="F33" s="2">
-        <v>10.4</v>
+      <c r="F33" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="G33" s="2">
         <v>370</v>
@@ -1115,7 +1226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>7</v>
       </c>
@@ -1129,23 +1240,23 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="C35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>41</v>
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -1177,7 +1288,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10">
       <c r="B42" s="3" t="s">
         <v>42</v>
       </c>
@@ -1206,14 +1317,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10">
       <c r="A44">
         <v>1</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="7">
+      <c r="B44" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="5">
         <v>3.6886574074074079E-2</v>
       </c>
       <c r="D44" s="2"/>
@@ -1224,14 +1335,14 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10">
       <c r="A45">
         <v>2</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" s="7">
+      <c r="B45" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="5">
         <v>3.784722222222222E-2</v>
       </c>
       <c r="D45" s="2"/>
@@ -1242,15 +1353,15 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10">
       <c r="A46">
         <v>3</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>74</v>
+      <c r="B46" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -1260,11 +1371,11 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10">
       <c r="A47">
         <v>4</v>
       </c>
-      <c r="B47" s="5"/>
+      <c r="B47" s="4"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -1274,11 +1385,11 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10">
       <c r="A48">
         <v>5</v>
       </c>
-      <c r="B48" s="5"/>
+      <c r="B48" s="4"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -1288,11 +1399,11 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="A49">
         <v>6</v>
       </c>
-      <c r="B49" s="5"/>
+      <c r="B49" s="4"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -1302,11 +1413,11 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="A50">
         <v>7</v>
       </c>
-      <c r="B50" s="5"/>
+      <c r="B50" s="4"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -1316,17 +1427,17 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13">
       <c r="C51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -1334,7 +1445,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -1375,7 +1486,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13">
       <c r="B57" s="3" t="s">
         <v>42</v>
       </c>
@@ -1413,12 +1524,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13">
       <c r="A59">
         <v>1</v>
       </c>
-      <c r="B59" s="5">
-        <v>3052.0214004629629</v>
+      <c r="B59" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2">
@@ -1427,14 +1538,14 @@
       <c r="E59" s="2">
         <v>162</v>
       </c>
-      <c r="F59" s="2">
-        <v>4.3</v>
+      <c r="F59" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="G59" s="2">
         <v>0.6</v>
       </c>
-      <c r="H59" s="2">
-        <v>3.8</v>
+      <c r="H59" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="I59" s="2">
         <v>1</v>
@@ -1452,12 +1563,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="A60">
         <v>2</v>
       </c>
-      <c r="B60" s="5">
-        <v>1.0220486111111111</v>
+      <c r="B60" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2">
@@ -1466,14 +1577,14 @@
       <c r="E60" s="2">
         <v>149</v>
       </c>
-      <c r="F60" s="2">
-        <v>5.4</v>
+      <c r="F60" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="G60" s="2">
         <v>0.2</v>
       </c>
-      <c r="H60" s="2">
-        <v>3.8</v>
+      <c r="H60" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="I60" s="2">
         <v>-20</v>
@@ -1491,12 +1602,12 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13">
       <c r="A61">
         <v>3</v>
       </c>
-      <c r="B61" s="5">
-        <v>2.2719907407407411E-2</v>
+      <c r="B61" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2">
@@ -1505,14 +1616,14 @@
       <c r="E61" s="2">
         <v>139</v>
       </c>
-      <c r="F61" s="2">
-        <v>6.3</v>
+      <c r="F61" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="G61" s="2">
         <v>-0.2</v>
       </c>
-      <c r="H61" s="2">
-        <v>3.8</v>
+      <c r="H61" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="I61" s="2">
         <v>-30</v>
@@ -1530,12 +1641,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13">
       <c r="A62">
         <v>4</v>
       </c>
-      <c r="B62" s="5">
-        <v>2.3460648148148147E-2</v>
+      <c r="B62" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2">
@@ -1544,14 +1655,14 @@
       <c r="E62" s="2">
         <v>127</v>
       </c>
-      <c r="F62" s="2">
-        <v>7.8</v>
+      <c r="F62" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="G62" s="2">
         <v>-0.8</v>
       </c>
-      <c r="H62" s="2">
-        <v>3.8</v>
+      <c r="H62" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="I62" s="2">
         <v>-43</v>
@@ -1569,12 +1680,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13">
       <c r="A63">
         <v>5</v>
       </c>
-      <c r="B63" s="5">
-        <v>2.4560185185185185E-2</v>
+      <c r="B63" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2">
@@ -1583,14 +1694,14 @@
       <c r="E63" s="2">
         <v>171</v>
       </c>
-      <c r="F63" s="2">
-        <v>3.85</v>
+      <c r="F63" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="G63" s="2">
         <v>0.9</v>
       </c>
-      <c r="H63" s="2">
-        <v>3.8</v>
+      <c r="H63" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="I63" s="2">
         <v>17</v>
@@ -1608,12 +1719,12 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13">
       <c r="A64">
         <v>6</v>
       </c>
-      <c r="B64" s="5">
-        <v>2.5150462962962961E-2</v>
+      <c r="B64" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2">
@@ -1622,14 +1733,14 @@
       <c r="E64" s="2">
         <v>182</v>
       </c>
-      <c r="F64" s="2">
-        <v>3.3</v>
+      <c r="F64" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="G64" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H64" s="2">
-        <v>3.8</v>
+      <c r="H64" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="I64" s="2">
         <v>44</v>
@@ -1647,12 +1758,12 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13">
       <c r="A65">
         <v>7</v>
       </c>
-      <c r="B65" s="5">
-        <v>2.568287037037037E-2</v>
+      <c r="B65" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2">
@@ -1661,14 +1772,14 @@
       <c r="E65" s="2">
         <v>191</v>
       </c>
-      <c r="F65" s="2">
-        <v>2.8</v>
+      <c r="F65" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="G65" s="2">
         <v>1.3</v>
       </c>
-      <c r="H65" s="2">
-        <v>3.8</v>
+      <c r="H65" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="I65" s="2">
         <v>58.5</v>
@@ -1686,17 +1797,17 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13">
       <c r="C66" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -1704,7 +1815,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
         <v>50</v>
       </c>
@@ -1718,7 +1829,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -1759,7 +1870,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13">
       <c r="B74" s="3" t="s">
         <v>42</v>
       </c>
@@ -1797,12 +1908,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13">
       <c r="A75">
         <v>1</v>
       </c>
-      <c r="B75" s="5">
-        <v>2.6562499999999999E-2</v>
+      <c r="B75" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2">
@@ -1820,8 +1931,8 @@
       <c r="H75" s="2">
         <v>3.8</v>
       </c>
-      <c r="I75" s="2" t="s">
-        <v>70</v>
+      <c r="I75" s="2">
+        <v>1</v>
       </c>
       <c r="J75" s="2">
         <v>421</v>
@@ -1832,16 +1943,16 @@
       <c r="L75" s="2">
         <v>652.5</v>
       </c>
-      <c r="M75" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M75" s="2">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76">
         <v>2</v>
       </c>
-      <c r="B76" s="5">
-        <v>2.7337962962962963E-2</v>
+      <c r="B76" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2">
@@ -1875,17 +1986,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13">
       <c r="C77" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10">
       <c r="D81" t="s">
         <v>53</v>
       </c>
@@ -1896,7 +2007,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10">
       <c r="D82" t="s">
         <v>42</v>
       </c>
@@ -1907,48 +2018,49 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
         <v>54</v>
       </c>
-      <c r="D83" s="5">
-        <v>3.0034722222222223E-2</v>
+      <c r="D83" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="E83" t="s">
         <v>55</v>
       </c>
-      <c r="G83" s="5">
-        <v>3.246527777777778E-2</v>
+      <c r="G83" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="H83" t="s">
         <v>56</v>
       </c>
-      <c r="J83" s="5">
-        <v>2.8171296296296302E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J83" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
         <v>57</v>
       </c>
-      <c r="D84" s="5">
-        <v>2.8912037037037038E-2</v>
+      <c r="D84" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="E84" t="s">
         <v>58</v>
       </c>
-      <c r="G84" s="5">
-        <v>3.2928240740740737E-2</v>
+      <c r="G84" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="H84" t="s">
         <v>59</v>
       </c>
-      <c r="J84" s="5">
-        <v>3.4143518518518517E-2</v>
+      <c r="J84" s="6" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B34:J34">
     <cfRule type="expression" priority="3">
       <formula>LEN(TRIM(B34))=0</formula>
@@ -2030,7 +2142,12 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>